--- a/database/industries/darou/derazak/balancesheet/yearly.xlsx
+++ b/database/industries/darou/derazak/balancesheet/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\derazak\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\derazak\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95091B0-0605-46CD-AC51-0FC545FB28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +236,6 @@
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -250,7 +250,6 @@
       <sz val="11"/>
       <color rgb="FF777777"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -419,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -431,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -478,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -513,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,19 +697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -830,7 +863,7 @@
         <v>135192</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -851,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -872,7 +905,7 @@
         <v>10990717</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -893,7 +926,7 @@
         <v>2853669</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -914,7 +947,7 @@
         <v>557559</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -935,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -956,7 +989,7 @@
         <v>14537137</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -977,7 +1010,7 @@
         <v>25195</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -998,7 +1031,7 @@
         <v>289850</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1073,7 @@
         <v>637979</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>56775</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1136,7 @@
         <v>143144</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1124,7 +1157,7 @@
         <v>1152943</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1178,7 @@
         <v>15690080</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1156,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1210,7 @@
         <v>1853549</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1252,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1273,7 @@
         <v>400074</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1261,7 +1294,7 @@
         <v>694210</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1315,7 @@
         <v>6222822</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1324,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1345,7 +1378,7 @@
         <v>9172004</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1408,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1429,7 +1462,7 @@
         <v>186238</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1450,7 +1483,7 @@
         <v>186238</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1504,7 @@
         <v>9358242</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1536,7 @@
         <v>889500</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>1075002</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1566,7 +1599,7 @@
         <v>-94253</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1620,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1641,7 @@
         <v>88950</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1767,7 @@
         <v>4368274</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1755,7 +1788,7 @@
         <v>6331838</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1776,7 +1809,7 @@
         <v>15690080</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
